--- a/Debug/net8.0-windows/File/cost new.xlsx
+++ b/Debug/net8.0-windows/File/cost new.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AF7A88-76FF-4B14-AB20-60FC48BEC959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE2B30F-DDAA-447C-8915-89C2F070BABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COST" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>2_TRAU_KHONG</t>
   </si>
@@ -142,6 +142,15 @@
   </si>
   <si>
     <t>2 chai tron</t>
+  </si>
+  <si>
+    <t>CB_2_ST_1_DDVS_NANO</t>
+  </si>
+  <si>
+    <t>CB_3_ST_NANO</t>
+  </si>
+  <si>
+    <t>NUOC_HOA_BODY</t>
   </si>
 </sst>
 </file>
@@ -478,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2908F2FD-C160-4369-B146-0E0C540AAFA0}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,11 +732,11 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -735,11 +744,11 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -747,11 +756,11 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -759,11 +768,11 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -913,7 +922,7 @@
         <v>13500</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D35" si="8">C34+B34</f>
+        <f t="shared" ref="D34:D38" si="8">C34+B34</f>
         <v>13500</v>
       </c>
     </row>
@@ -927,6 +936,43 @@
       <c r="D35">
         <f t="shared" si="8"/>
         <v>30000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <f>33000*2+27000</f>
+        <v>93000</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="8"/>
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>99000</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="8"/>
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>25000</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="8"/>
+        <v>25000</v>
       </c>
     </row>
   </sheetData>

--- a/Debug/net8.0-windows/File/cost new.xlsx
+++ b/Debug/net8.0-windows/File/cost new.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AF7A88-76FF-4B14-AB20-60FC48BEC959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FAEA71-92F6-4CF5-AD8B-8B7CC0D1CB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COST" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>2_TRAU_KHONG</t>
   </si>
@@ -142,6 +142,42 @@
   </si>
   <si>
     <t>2 chai tron</t>
+  </si>
+  <si>
+    <t>CB_2_ST_1_DDVS_NANO</t>
+  </si>
+  <si>
+    <t>CB_3_ST_NANO</t>
+  </si>
+  <si>
+    <t>NUOC_HOA_BODY</t>
+  </si>
+  <si>
+    <t>NUOC_HOA_GOODMAN</t>
+  </si>
+  <si>
+    <t>1_Chai_Trau_Khong_Lo_Hoi</t>
+  </si>
+  <si>
+    <t>2_Chai_Trau_Khong_Lo_Hoi</t>
+  </si>
+  <si>
+    <t>1_chai_trau_khong_tra_xanh</t>
+  </si>
+  <si>
+    <t>2_chai_trau_khong_tra_xanh</t>
+  </si>
+  <si>
+    <t>cb3_TrauKhong_TiaTo_LoHoi_Tra</t>
+  </si>
+  <si>
+    <t>2_sua_tam_nano_man</t>
+  </si>
+  <si>
+    <t>2_ddvs_nano_man</t>
+  </si>
+  <si>
+    <t>2_srm_nano_man</t>
   </si>
 </sst>
 </file>
@@ -168,12 +204,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,10 +230,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2908F2FD-C160-4369-B146-0E0C540AAFA0}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,7 +750,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18">
@@ -719,51 +762,51 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>33000</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>25000</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>27000</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="D22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -913,7 +956,7 @@
         <v>13500</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D35" si="8">C34+B34</f>
+        <f t="shared" ref="D34:D44" si="8">C34+B34</f>
         <v>13500</v>
       </c>
     </row>
@@ -927,6 +970,153 @@
       <c r="D35">
         <f t="shared" si="8"/>
         <v>30000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <f>33000*2+27000</f>
+        <v>93000</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="8"/>
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>99000</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="8"/>
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>25000</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="8"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>25000</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="8"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>13500</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="8"/>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>27000</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="8"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>13500</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="8"/>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>27000</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="8"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>13500</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="8"/>
+        <v>13500</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>33000</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:D47" si="9">B45+C45</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
+        <f>27000*2</f>
+        <v>54000</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="9"/>
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
+        <f>25000*2</f>
+        <v>50000</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="9"/>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
